--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3914390.832595001</v>
+        <v>3912503.251078598</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7759650.03005849</v>
+        <v>7759650.030058491</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>51.07276436808679</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.6679898432817</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>86.11283245544982</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>344.1885632976872</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>37.19452077384797</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784705</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211457</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>116.3130092334097</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056509</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274043</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002167</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>3.633341602775353</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>237.6821551249376</v>
+        <v>158.3917916061199</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>183.179675846699</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>173.4405054918793</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.61035505917232</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404417</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>93.41221638965506</v>
       </c>
       <c r="E31" t="n">
-        <v>4.269136891154122</v>
+        <v>91.23070601801187</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437396</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.20569823125968</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523549</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952707</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235375</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>983.0286321745434</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2426.92577311343</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2095.862885769859</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1743.094230499745</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1369.628472238665</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.628472238665</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>641.1463251605253</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>351.9727148150933</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>351.9727148150933</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1894.539591564834</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.577074624423</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1525.577074624423</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1139.788822026178</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>728.8029172365709</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564834</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.3850306156796</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>516.422513675268</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>516.422513675268</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5033,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5185,16 +5185,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,31 +5215,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028587</v>
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,34 +5291,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>229.0333923118344</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>383.6411625027481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>214.7049795748412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>214.7049795748412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>214.7049795748412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>214.7049795748412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471189</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5467,19 +5467,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.082206476518</v>
+        <v>786.0822064765181</v>
       </c>
       <c r="V16" t="n">
-        <v>786.082206476518</v>
+        <v>531.3977182706311</v>
       </c>
       <c r="W16" t="n">
-        <v>786.082206476518</v>
+        <v>241.9805482336706</v>
       </c>
       <c r="X16" t="n">
-        <v>786.082206476518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.2896273329878</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
         <v>1283.483062980063</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347407</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011509</v>
+        <v>986.0022165609655</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>731.3177283550785</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583033</v>
+        <v>727.6476863320731</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,16 +5765,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.063975947119</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765181</v>
+        <v>874.9271131227912</v>
       </c>
       <c r="V22" t="n">
-        <v>786.082206476518</v>
+        <v>874.9271131227912</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018336</v>
+        <v>714.9354044297404</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038162</v>
+        <v>486.9458535317231</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028597</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383434</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387942</v>
+        <v>420.3226148324565</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018335</v>
+        <v>245.1301850426794</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>245.1301850426793</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D28" t="n">
-        <v>97.2170914602858</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2170914602858</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>786.082206476518</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,16 +6464,16 @@
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110255</v>
+        <v>439.5324299542224</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644896</v>
+        <v>326.3571123076865</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335249</v>
+        <v>232.0013381767218</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475109</v>
+        <v>139.8491098756997</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309716</v>
+        <v>139.8491098756997</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6622,10 +6622,10 @@
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962062</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096196</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1568.628130167073</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818806</v>
+        <v>1335.260356662002</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.65097189429</v>
+        <v>1136.336733737486</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386997</v>
+        <v>902.6804289818965</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220534</v>
+        <v>730.4517433652502</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598942</v>
+        <v>565.4200295030911</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,22 +6686,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525406</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,25 +7193,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7415,46 +7415,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165111</v>
+        <v>253.7371603504735</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>91.23759968302119</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>28.12263706263008</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775594</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>148.2747143566556</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>158.8051956154453</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>50.18055922996792</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338628</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338663</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>282.8896567338156</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>48.84084321165341</v>
+        <v>128.1312067304711</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518784</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.0824928447118</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>109.00511795904</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338631</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>86.96156912685777</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437395</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>69.08461360356061</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897883</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357147</v>
+        <v>55.21598883571468</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523551</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="9">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244624</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="H2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
         <v>752620.9540887491</v>
@@ -26344,16 +26344,16 @@
         <v>759463.6371244611</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="N2" t="n">
         <v>759463.6371244611</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244609</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244612</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284586</v>
+        <v>44162.60530284584</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086668</v>
+        <v>10342.90680086669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284583</v>
+        <v>44162.60530284587</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>7916.731656007401</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007465</v>
+        <v>7916.731656007499</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007495</v>
       </c>
       <c r="K4" t="n">
         <v>26081.3541702041</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732798</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.36886941231</v>
+        <v>-61280.36886941243</v>
       </c>
       <c r="C6" t="n">
+        <v>528687.510345132</v>
+      </c>
+      <c r="D6" t="n">
         <v>528687.5103451322</v>
       </c>
-      <c r="D6" t="n">
-        <v>528687.510345132</v>
-      </c>
       <c r="E6" t="n">
-        <v>98339.66643314125</v>
+        <v>98242.20730716885</v>
       </c>
       <c r="F6" t="n">
-        <v>623499.7029100374</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="G6" t="n">
-        <v>623499.7029100372</v>
+        <v>623402.2437840652</v>
       </c>
       <c r="H6" t="n">
-        <v>623499.7029100372</v>
+        <v>623402.243784065</v>
       </c>
       <c r="I6" t="n">
-        <v>623499.702910037</v>
+        <v>623402.2437840652</v>
       </c>
       <c r="J6" t="n">
-        <v>447076.4837174444</v>
+        <v>446979.0245914722</v>
       </c>
       <c r="K6" t="n">
-        <v>585748.7860854764</v>
+        <v>585730.292347542</v>
       </c>
       <c r="L6" t="n">
         <v>621070.105606241</v>
       </c>
       <c r="M6" t="n">
-        <v>496611.9971732706</v>
+        <v>496611.9971732707</v>
       </c>
       <c r="N6" t="n">
         <v>631413.0124071077</v>
       </c>
       <c r="O6" t="n">
-        <v>631413.0124071077</v>
+        <v>631413.0124071075</v>
       </c>
       <c r="P6" t="n">
-        <v>587250.4071042618</v>
+        <v>587250.407104262</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,28 +26741,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855732</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108335</v>
+        <v>12.92863350108337</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855734</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855732</v>
+        <v>55.2032566285573</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>200.1514031402025</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>55.56994881277188</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>138.9222730026345</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>69.59560672310784</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.4663446304625</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>344.7358492984138</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.2032566285573</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>586.9317337484864</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>133.1477786379279</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,7 +35732,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415665</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556548</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700197</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36051,16 +36051,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>235.2160519941548</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>451.7807101798181</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412283</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043206</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37160,10 +37160,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>343.3468637082223</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>355.3681292881803</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
